--- a/CashFlow/INCY_cashflow.xlsx
+++ b/CashFlow/INCY_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>63000000.0</v>
+        <v>-19468000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>58000000.0</v>
+        <v>-12391000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>40375000.0</v>
+        <v>-13196000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>22687000.0</v>
+        <v>-11212000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>8087000.0</v>
+        <v>-6100000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-1900000.0</v>
@@ -1000,19 +1000,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>15120000.0</v>
+        <v>374000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>27136000.0</v>
+        <v>359000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>28009000.0</v>
+        <v>268476000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>36544000.0</v>
+        <v>215983000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>37324000.0</v>
+        <v>133053000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>45587000.0</v>
